--- a/Design/Design.xlsx
+++ b/Design/Design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>Clubs</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>7/+8000</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>Earn cash using alternate ways</t>
   </si>
   <si>
-    <t>Players able to communicate with each other</t>
-  </si>
-  <si>
     <t>Can Players change the bet amount and what they are beting on during re turn?</t>
   </si>
   <si>
@@ -292,6 +286,57 @@
   </si>
   <si>
     <t>Tables</t>
+  </si>
+  <si>
+    <t>Spectator can bet on multiple tables within a club at once</t>
+  </si>
+  <si>
+    <t>Game on all 5 tables should run one after the other</t>
+  </si>
+  <si>
+    <t>A visual board for spectator to see the bets and each table status</t>
+  </si>
+  <si>
+    <t>1 Friend Recruit Cash</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>4 dice</t>
+  </si>
+  <si>
+    <t>Below 14</t>
+  </si>
+  <si>
+    <t>Above 14</t>
+  </si>
+  <si>
+    <t>Play Poker</t>
+  </si>
+  <si>
+    <t>Give horizontal sliders for bet amount</t>
+  </si>
+  <si>
+    <t>If player empty pocket then allow him to re enter the game by visiting shop</t>
+  </si>
+  <si>
+    <t>Player comes back to the game for the fun of playing and would purchase chips for it/complete offers to get chips.</t>
+  </si>
+  <si>
+    <t>5000/5</t>
+  </si>
+  <si>
+    <t>10000/5</t>
+  </si>
+  <si>
+    <t>50000/5</t>
+  </si>
+  <si>
+    <t>100000/5</t>
+  </si>
+  <si>
+    <t>Players able to communicate with each other within game</t>
   </si>
 </sst>
 </file>
@@ -454,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -500,13 +545,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X44"/>
+  <dimension ref="A2:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,7 +862,9 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22">
@@ -825,31 +877,34 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
@@ -857,32 +912,32 @@
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>53</v>
+      <c r="I3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
@@ -890,120 +945,101 @@
         <v>1000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="P4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="Q4" t="s">
         <v>53</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>5000</v>
       </c>
-      <c r="E5" s="2">
-        <v>10000</v>
+      <c r="E5" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6">
         <v>10000</v>
       </c>
-      <c r="E6" s="6">
-        <v>100000</v>
+      <c r="E6" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6">
         <v>50000</v>
       </c>
-      <c r="E7" s="2">
-        <v>100000</v>
+      <c r="E7" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="29">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="29">
         <v>100000</v>
       </c>
-      <c r="E8" s="6">
-        <v>100000</v>
+      <c r="E8" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="5">
         <v>5</v>
@@ -1017,7 +1053,7 @@
     <row r="10" spans="1:22">
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1129,14 +1165,14 @@
       </c>
       <c r="D21" s="10"/>
       <c r="M21" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
@@ -1154,14 +1190,14 @@
       </c>
       <c r="D22" s="10"/>
       <c r="M22" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1179,14 +1215,14 @@
       </c>
       <c r="D23" s="10"/>
       <c r="M23" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1204,14 +1240,14 @@
       </c>
       <c r="D24" s="10"/>
       <c r="M24" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -1229,7 +1265,7 @@
       </c>
       <c r="D25" s="10"/>
       <c r="M25" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1237,7 +1273,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1246,9 +1282,9 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="D26" s="28"/>
+      <c r="D26" s="32"/>
       <c r="M26" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1256,7 +1292,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1265,9 +1301,9 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="D27" s="28"/>
+      <c r="D27" s="32"/>
       <c r="M27" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1275,7 +1311,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -1284,15 +1320,15 @@
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="31"/>
       <c r="C28">
         <v>8000</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1300,7 +1336,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -1309,15 +1345,15 @@
       <c r="X28" s="3"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="31"/>
       <c r="C29">
         <v>2700</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1325,7 +1361,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -1334,15 +1370,15 @@
       <c r="X29" s="3"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="31"/>
       <c r="C30">
         <v>5300</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1350,7 +1386,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -1359,12 +1395,12 @@
       <c r="X30" s="3"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="10"/>
       <c r="M31" s="23"/>
@@ -1381,15 +1417,15 @@
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -1399,19 +1435,19 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="11"/>
       <c r="M33" s="24" t="s">
@@ -1422,7 +1458,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -1433,85 +1469,126 @@
     </row>
     <row r="34" spans="1:24">
       <c r="M34" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="M35" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="R35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="B36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="27"/>
+      <c r="B36" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="31"/>
       <c r="M36" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="M41" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:24">
       <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="M42" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42">
+        <v>14</v>
+      </c>
+      <c r="O42" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="C43" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="M43" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="C44" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="M44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="M45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="M46" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1543,11 +1620,11 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:4">

--- a/Design/Design.xlsx
+++ b/Design/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
   <si>
     <t>Clubs</t>
   </si>
@@ -337,6 +337,51 @@
   </si>
   <si>
     <t>Players able to communicate with each other within game</t>
+  </si>
+  <si>
+    <t>friend name</t>
+  </si>
+  <si>
+    <t>friend pic</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last </t>
+  </si>
+  <si>
+    <t xml:space="preserve">next </t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>slider</t>
+  </si>
+  <si>
+    <t>Challenge friends</t>
+  </si>
+  <si>
+    <t>how many?</t>
+  </si>
+  <si>
+    <t>total - friends playing</t>
+  </si>
+  <si>
+    <t>Use current coins as a status symbol</t>
+  </si>
+  <si>
+    <t>My Clubs</t>
+  </si>
+  <si>
+    <t>make game viral and get that competitive feel b/w players seeeing ppl they know already</t>
+  </si>
+  <si>
+    <t>Able to play with people around the world</t>
+  </si>
+  <si>
+    <t>What's the hook for the player to come again and again. .. The human intelligence factor?</t>
   </si>
 </sst>
 </file>
@@ -499,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -556,6 +601,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X46"/>
+  <dimension ref="A2:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,12 +921,12 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -900,7 +959,7 @@
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -911,7 +970,7 @@
       <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -933,7 +992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -944,7 +1003,7 @@
       <c r="D4" s="2">
         <v>1000</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -960,7 +1019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -971,7 +1030,7 @@
       <c r="D5" s="2">
         <v>5000</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -981,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -992,7 +1051,7 @@
       <c r="D6" s="6">
         <v>10000</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="28" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1002,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -1013,7 +1072,7 @@
       <c r="D7" s="6">
         <v>50000</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -1024,7 +1083,7 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -1035,7 +1094,7 @@
       <c r="D8" s="29">
         <v>100000</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="33" t="s">
         <v>105</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -1045,12 +1104,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
         <v>77</v>
@@ -1065,7 +1124,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1073,17 +1132,55 @@
         <v>23</v>
       </c>
       <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="L11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="22"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="F12" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="L12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1091,8 +1188,29 @@
         <v>25</v>
       </c>
       <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="L13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1100,8 +1218,27 @@
         <v>27</v>
       </c>
       <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1109,9 +1246,24 @@
         <v>25</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="L15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
@@ -1119,8 +1271,24 @@
         <v>28</v>
       </c>
       <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="L16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
@@ -1128,8 +1296,24 @@
         <v>23</v>
       </c>
       <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="L17" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
@@ -1137,8 +1321,27 @@
         <v>32</v>
       </c>
       <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="F18" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
@@ -1146,8 +1349,27 @@
         <v>26</v>
       </c>
       <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
@@ -1155,8 +1377,27 @@
         <v>25</v>
       </c>
       <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
@@ -1164,24 +1405,20 @@
         <v>28</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="M21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="22"/>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
@@ -1189,24 +1426,36 @@
         <v>23</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="M22" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="T22" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -1214,24 +1463,27 @@
         <v>29</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="M23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
@@ -1239,24 +1491,30 @@
         <v>25</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="M24" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="15" t="s">
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="B25" s="8" t="s">
         <v>21</v>
       </c>
@@ -1264,62 +1522,56 @@
         <v>23</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="M25" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="R25" s="2"/>
-      <c r="S25" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="D26" s="32"/>
-      <c r="M26" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="L26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="15" t="s">
-        <v>72</v>
-      </c>
+      <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="D27" s="32"/>
-      <c r="M27" s="23" t="s">
-        <v>64</v>
-      </c>
+      <c r="L27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="31" t="s">
         <v>22</v>
       </c>
@@ -1327,24 +1579,25 @@
       <c r="C28">
         <v>8000</v>
       </c>
-      <c r="M28" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="31" t="s">
         <v>30</v>
       </c>
@@ -1352,24 +1605,22 @@
       <c r="C29">
         <v>2700</v>
       </c>
-      <c r="M29" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="L29" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="31" t="s">
         <v>31</v>
       </c>
@@ -1377,24 +1628,22 @@
       <c r="C30">
         <v>5300</v>
       </c>
-      <c r="M30" s="23" t="s">
-        <v>106</v>
-      </c>
+      <c r="L30" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="31" t="s">
         <v>33</v>
       </c>
@@ -1403,7 +1652,10 @@
         <v>36</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="M31" s="23"/>
+      <c r="L31" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" s="28"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -1413,10 +1665,9 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="31" t="s">
         <v>33</v>
       </c>
@@ -1424,24 +1675,26 @@
       <c r="C32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="L32" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" s="37">
+        <v>14</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="31" t="s">
         <v>33</v>
       </c>
@@ -1450,149 +1703,139 @@
         <v>34</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="M33" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="5"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="M34" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="R34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="M35" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="R35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="F33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="L34" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="L35" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="B36" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="31"/>
-      <c r="M36" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="L36" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="L37" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M38" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+    </row>
+    <row r="39" spans="1:23">
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M39" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+    </row>
+    <row r="40" spans="1:23">
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M40" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:23">
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M41" t="s">
-        <v>95</v>
-      </c>
-      <c r="N41" s="28"/>
-    </row>
-    <row r="42" spans="1:24">
+    </row>
+    <row r="42" spans="1:23">
       <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M42" t="s">
-        <v>96</v>
-      </c>
-      <c r="N42">
-        <v>14</v>
-      </c>
-      <c r="O42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+    </row>
+    <row r="43" spans="1:23">
       <c r="C43" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:23">
       <c r="C44" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="M45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="M46" t="s">
-        <v>101</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="A28:B28"/>
@@ -1602,6 +1845,7 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Design/Design.xlsx
+++ b/Design/Design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t>Clubs</t>
   </si>
@@ -219,12 +219,6 @@
     <t>Many people change/make their decision based on others.</t>
   </si>
   <si>
-    <t>Earn cash using alternate ways</t>
-  </si>
-  <si>
-    <t>Can Players change the bet amount and what they are beting on during re turn?</t>
-  </si>
-  <si>
     <t>Show the bet amounts on both sides and on numbers too.</t>
   </si>
   <si>
@@ -240,15 +234,6 @@
     <t>Get it drawn.</t>
   </si>
   <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>Add Offers in the earn cash panel.</t>
-  </si>
-  <si>
-    <t>No Re Turn for now</t>
-  </si>
-  <si>
     <t>Turn</t>
   </si>
   <si>
@@ -258,15 +243,9 @@
     <t>Single Table</t>
   </si>
   <si>
-    <t>Multi Lingual</t>
-  </si>
-  <si>
     <t>Invite friends - Give Bonus</t>
   </si>
   <si>
-    <t>Most popular option in the shop</t>
-  </si>
-  <si>
     <t>If you leave in between the game?</t>
   </si>
   <si>
@@ -294,33 +273,12 @@
     <t>Game on all 5 tables should run one after the other</t>
   </si>
   <si>
-    <t>A visual board for spectator to see the bets and each table status</t>
-  </si>
-  <si>
     <t>1 Friend Recruit Cash</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>4 dice</t>
-  </si>
-  <si>
-    <t>Below 14</t>
-  </si>
-  <si>
-    <t>Above 14</t>
-  </si>
-  <si>
-    <t>Play Poker</t>
-  </si>
-  <si>
-    <t>Give horizontal sliders for bet amount</t>
-  </si>
-  <si>
-    <t>If player empty pocket then allow him to re enter the game by visiting shop</t>
-  </si>
-  <si>
     <t>Player comes back to the game for the fun of playing and would purchase chips for it/complete offers to get chips.</t>
   </si>
   <si>
@@ -336,9 +294,6 @@
     <t>100000/5</t>
   </si>
   <si>
-    <t>Players able to communicate with each other within game</t>
-  </si>
-  <si>
     <t>friend name</t>
   </si>
   <si>
@@ -382,6 +337,12 @@
   </si>
   <si>
     <t>What's the hook for the player to come again and again. .. The human intelligence factor?</t>
+  </si>
+  <si>
+    <t>You loose the amount you betted.</t>
+  </si>
+  <si>
+    <t>A visual board for spectator to see the bets and each table status in the club</t>
   </si>
 </sst>
 </file>
@@ -544,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -596,12 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -612,6 +567,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -910,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:W44"/>
+  <dimension ref="A2:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -942,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>58</v>
@@ -956,8 +920,8 @@
       <c r="Q2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="15">
@@ -971,16 +935,16 @@
         <v>100</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>500</v>
@@ -1004,10 +968,10 @@
         <v>1000</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
@@ -1031,10 +995,10 @@
         <v>5000</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -1052,10 +1016,10 @@
         <v>10000</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -1073,10 +1037,10 @@
         <v>50000</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
@@ -1088,17 +1052,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="29">
         <v>100000</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>105</v>
+      <c r="E8" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G8" s="5">
         <v>5</v>
@@ -1112,7 +1076,7 @@
     <row r="10" spans="1:23">
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1140,7 +1104,7 @@
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
@@ -1156,13 +1120,13 @@
       <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="F12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
       <c r="L12" s="23" t="s">
         <v>46</v>
       </c>
@@ -1171,7 +1135,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1188,11 +1152,11 @@
         <v>25</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="L13" s="23" t="s">
         <v>59</v>
       </c>
@@ -1201,7 +1165,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1219,7 +1183,7 @@
       </c>
       <c r="D14" s="10"/>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>60</v>
@@ -1229,7 +1193,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1255,7 +1219,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1280,7 +1244,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1305,7 +1269,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1322,10 +1286,10 @@
       </c>
       <c r="D18" s="10"/>
       <c r="F18" s="27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1350,19 +1314,15 @@
       </c>
       <c r="D19" s="10"/>
       <c r="G19" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>67</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="L19" s="23"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="R19" s="15"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1378,19 +1338,15 @@
       </c>
       <c r="D20" s="10"/>
       <c r="G20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="L20" s="23"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="R20" s="15"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1427,20 +1383,18 @@
       </c>
       <c r="D22" s="10"/>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>68</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="L22" s="23"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1448,9 +1402,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="T22" s="15"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="3"/>
@@ -1464,17 +1416,17 @@
       </c>
       <c r="D23" s="10"/>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="25" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -1492,21 +1444,17 @@
       </c>
       <c r="D24" s="10"/>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>80</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="L24" s="32"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
@@ -1527,9 +1475,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1538,10 +1484,8 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="D26" s="32"/>
-      <c r="L26" s="26" t="s">
-        <v>82</v>
-      </c>
+      <c r="D26" s="38"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1555,15 +1499,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="D27" s="32"/>
+      <c r="D27" s="38"/>
       <c r="L27" s="26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="Q27" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -1572,18 +1518,18 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="37"/>
       <c r="C28">
         <v>8000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1598,15 +1544,15 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="37"/>
       <c r="C29">
         <v>2700</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1621,15 +1567,15 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="37"/>
       <c r="C30">
         <v>5300</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1644,17 +1590,15 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="L31" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="L31" s="23"/>
       <c r="M31" s="28"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -1668,22 +1612,16 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M32" s="37">
-        <v>14</v>
-      </c>
-      <c r="N32" s="37" t="s">
-        <v>97</v>
-      </c>
+      <c r="L32" s="34"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -1695,20 +1633,18 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="31"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="11"/>
       <c r="F33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>98</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="L33" s="23"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -1722,9 +1658,7 @@
       <c r="W33" s="3"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="L34" s="23" t="s">
-        <v>99</v>
-      </c>
+      <c r="L34" s="23"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1738,9 +1672,7 @@
       <c r="W34" s="3"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="L35" s="23" t="s">
-        <v>100</v>
-      </c>
+      <c r="L35" s="23"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -1754,12 +1686,12 @@
       <c r="W35" s="3"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="37"/>
       <c r="L36" s="24" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -1780,8 +1712,8 @@
       <c r="C37" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="35" t="s">
-        <v>121</v>
+      <c r="L37" s="33" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -1834,8 +1766,32 @@
         <v>61</v>
       </c>
     </row>
+    <row r="49" spans="6:19">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="53" spans="6:19" ht="34.5" customHeight="1">
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+    </row>
+    <row r="54" spans="6:19" hidden="1">
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="L53:S54"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="A28:B28"/>
@@ -1864,11 +1820,11 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:4">
